--- a/LegacySystem/src/main/resources/excel/resource.xlsx
+++ b/LegacySystem/src/main/resources/excel/resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="24040" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>项目</t>
   </si>
@@ -248,6 +248,24 @@
   </si>
   <si>
     <t>line43</t>
+  </si>
+  <si>
+    <t>移印机</t>
+  </si>
+  <si>
+    <t>机器</t>
+  </si>
+  <si>
+    <t>高电压测试机</t>
+  </si>
+  <si>
+    <t>弹片机</t>
+  </si>
+  <si>
+    <t>自动包装机</t>
+  </si>
+  <si>
+    <t>电阻测试机</t>
   </si>
 </sst>
 </file>
@@ -255,12 +273,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,15 +304,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -303,15 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,15 +331,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,8 +362,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,7 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,33 +386,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,14 +402,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,187 +468,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,36 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,6 +691,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,15 +736,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -751,157 +744,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,73 +934,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1244,17 +1270,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="14.7232142857143" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="60" spans="1:6">
+    <row r="1" ht="56" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,1062 +1299,1142 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="345" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="322" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="30" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="28" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" ht="28" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" ht="28" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" ht="28" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" ht="28" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" ht="28" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" ht="28" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" ht="28" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+    <row r="11" ht="28" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+    <row r="12" ht="28" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" ht="28" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+    <row r="14" ht="28" spans="1:6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+    <row r="15" ht="28" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" ht="28" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" ht="28" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+    <row r="18" ht="28" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+    <row r="19" ht="28" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+    <row r="20" ht="28" spans="1:6">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" ht="28" spans="1:6">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="30" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" ht="28" spans="1:6">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="30" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+    <row r="23" ht="28" spans="1:6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="30" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
+    <row r="24" ht="28" spans="1:6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="30" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" ht="28" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="30" spans="1:6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
+    <row r="26" ht="28" spans="1:6">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="27" ht="30" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
+    <row r="27" ht="28" spans="1:6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="28" ht="30" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
+    <row r="28" ht="28" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="30" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
+    <row r="29" ht="28" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="30" ht="30" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+    <row r="30" ht="28" spans="1:6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="31" ht="30" spans="1:6">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+    <row r="31" ht="28" spans="1:6">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="32" ht="30" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
+    <row r="32" ht="28" spans="1:6">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="33" ht="30" spans="1:6">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+    <row r="33" ht="28" spans="1:6">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
+      <c r="C33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="34" ht="30" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7" t="s">
+    <row r="34" ht="28" spans="1:6">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="30" spans="1:6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7" t="s">
+    <row r="35" ht="28" spans="1:6">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
+      <c r="C35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="45" spans="1:6">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
+    <row r="36" ht="28" spans="1:6">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="C36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:6">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
+    <row r="37" ht="14" spans="1:6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="C37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:6">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
+    <row r="38" ht="14" spans="1:6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
+      <c r="C38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:6">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
+    <row r="39" ht="14" spans="1:6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
+      <c r="C39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:6">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7" t="s">
+    <row r="40" ht="14" spans="1:6">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:6">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
+    <row r="41" ht="14" spans="1:6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:6">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7" t="s">
+    <row r="42" ht="14" spans="1:6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="C42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:6">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7" t="s">
+    <row r="43" ht="14" spans="1:6">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
+      <c r="C43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:6">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
+    <row r="44" ht="14" spans="1:6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="C44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:6">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7" t="s">
+    <row r="45" ht="14" spans="1:6">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
+      <c r="C45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:6">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
+    <row r="46" ht="14" spans="1:6">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:6">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7" t="s">
+    <row r="47" ht="14" spans="1:6">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="C47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7" t="s">
+    <row r="48" ht="14" spans="1:6">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="C48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:6">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
+    <row r="49" ht="14" spans="1:6">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
+      <c r="C49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:6">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7" t="s">
+    <row r="50" ht="14" spans="1:6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="C50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:6">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
+    <row r="51" ht="14" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
+      <c r="C51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:6">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7" t="s">
+    <row r="52" ht="14" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
+      <c r="C52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:6">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7" t="s">
+    <row r="53" ht="14" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="C53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:6">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7" t="s">
+    <row r="54" ht="14" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
+      <c r="C54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:6">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7" t="s">
+    <row r="55" ht="14" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
+      <c r="C55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="1:6">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7" t="s">
+    <row r="56" ht="14" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
+      <c r="C56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="1:6">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7" t="s">
+    <row r="57" ht="14" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="C57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="1:6">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7" t="s">
+    <row r="58" ht="14" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
+      <c r="C58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="1:6">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7" t="s">
+    <row r="59" ht="14" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
+      <c r="C59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="1:6">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7" t="s">
+    <row r="60" ht="14" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
+      <c r="C60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="1:6">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7" t="s">
+    <row r="61" ht="14" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
+      <c r="C61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="1:6">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7" t="s">
+    <row r="62" ht="14" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
+      <c r="C62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:6">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7" t="s">
+    <row r="63" ht="14" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
+      <c r="C63" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:6">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7" t="s">
+    <row r="64" ht="14" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
+      <c r="C64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:6">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7" t="s">
+    <row r="65" ht="14" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
+      <c r="C65" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="1:6">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7" t="s">
+    <row r="66" ht="14" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6" t="s">
+      <c r="C66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:6">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7" t="s">
+    <row r="67" ht="14" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
+      <c r="C67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="14" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="14" spans="1:6">
+      <c r="A69" s="4"/>
+      <c r="B69" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" ht="14" spans="1:6">
+      <c r="A70" s="4"/>
+      <c r="B70" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" ht="14" spans="1:6">
+      <c r="A71" s="4"/>
+      <c r="B71" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" ht="14" spans="1:6">
+      <c r="A72" s="4"/>
+      <c r="B72" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/LegacySystem/src/main/resources/excel/resource.xlsx
+++ b/LegacySystem/src/main/resources/excel/resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>项目</t>
   </si>
@@ -148,7 +148,7 @@
     <t>33组-许萍（5）</t>
   </si>
   <si>
-    <t>22组-陈霞（3）</t>
+    <t>22组-陈霞（6）</t>
   </si>
   <si>
     <t>UKK组-王娣（6）</t>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>移印机</t>
-  </si>
-  <si>
-    <t>机器</t>
   </si>
   <si>
     <t>高电压测试机</t>
@@ -273,12 +270,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,20 +301,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +313,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,10 +339,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,11 +377,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,68 +438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -468,19 +460,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +556,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,151 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,6 +696,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -734,13 +737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,172 +766,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,9 +940,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1274,8 +1263,8 @@
   <sheetPr/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="5"/>
@@ -1317,7 +1306,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="28" spans="1:6">
+    <row r="3" ht="14" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -1333,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:6">
+    <row r="4" ht="14" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1349,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:6">
+    <row r="5" ht="14" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1365,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:6">
+    <row r="6" ht="14" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -1381,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:6">
+    <row r="7" ht="14" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -1397,7 +1386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:6">
+    <row r="8" ht="14" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
@@ -1413,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:6">
+    <row r="9" ht="14" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>17</v>
@@ -1429,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:6">
+    <row r="10" ht="14" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>18</v>
@@ -1445,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:6">
+    <row r="11" ht="14" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>19</v>
@@ -1461,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:6">
+    <row r="12" ht="14" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>20</v>
@@ -1493,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="1:6">
+    <row r="14" ht="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>22</v>
@@ -1509,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="1:6">
+    <row r="15" ht="14" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>23</v>
@@ -1525,7 +1514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" ht="28" spans="1:6">
+    <row r="16" ht="14" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>24</v>
@@ -1541,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="1:6">
+    <row r="17" ht="14" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>25</v>
@@ -1557,7 +1546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:6">
+    <row r="18" ht="14" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>26</v>
@@ -1573,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="28" spans="1:6">
+    <row r="19" ht="14" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>27</v>
@@ -1589,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="1:6">
+    <row r="20" ht="14" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>28</v>
@@ -1605,7 +1594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="28" spans="1:6">
+    <row r="21" ht="14" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>29</v>
@@ -1621,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="28" spans="1:6">
+    <row r="22" ht="14" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>30</v>
@@ -1637,7 +1626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="28" spans="1:6">
+    <row r="23" ht="14" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>31</v>
@@ -1653,7 +1642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="28" spans="1:6">
+    <row r="24" ht="14" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>32</v>
@@ -1669,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="1:6">
+    <row r="25" ht="14" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>33</v>
@@ -1685,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="28" spans="1:6">
+    <row r="26" ht="14" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>34</v>
@@ -1701,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" ht="28" spans="1:6">
+    <row r="27" ht="14" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>35</v>
@@ -1717,7 +1706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" ht="28" spans="1:6">
+    <row r="28" ht="14" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>36</v>
@@ -1733,7 +1722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="28" spans="1:6">
+    <row r="29" ht="14" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>37</v>
@@ -1749,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" ht="28" spans="1:6">
+    <row r="30" ht="14" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>38</v>
@@ -1765,7 +1754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" ht="28" spans="1:6">
+    <row r="31" ht="14" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>39</v>
@@ -1781,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" ht="28" spans="1:6">
+    <row r="32" ht="14" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
         <v>40</v>
@@ -1797,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" ht="28" spans="1:6">
+    <row r="33" ht="14" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>41</v>
@@ -1813,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" ht="28" spans="1:6">
+    <row r="34" ht="14" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>42</v>
@@ -1829,7 +1818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="28" spans="1:6">
+    <row r="35" ht="14" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>43</v>
@@ -1842,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:6">
@@ -2359,11 +2348,11 @@
     </row>
     <row r="68" ht="14" spans="1:6">
       <c r="A68" s="4"/>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
@@ -2375,11 +2364,11 @@
     </row>
     <row r="69" ht="14" spans="1:6">
       <c r="A69" s="4"/>
-      <c r="B69" s="9" t="s">
-        <v>79</v>
+      <c r="B69" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
@@ -2391,11 +2380,11 @@
     </row>
     <row r="70" ht="14" spans="1:6">
       <c r="A70" s="4"/>
-      <c r="B70" s="9" t="s">
-        <v>80</v>
+      <c r="B70" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
@@ -2407,11 +2396,11 @@
     </row>
     <row r="71" ht="14" spans="1:6">
       <c r="A71" s="4"/>
-      <c r="B71" s="9" t="s">
-        <v>81</v>
+      <c r="B71" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
@@ -2423,11 +2412,11 @@
     </row>
     <row r="72" ht="14" spans="1:6">
       <c r="A72" s="4"/>
-      <c r="B72" s="9" t="s">
-        <v>82</v>
+      <c r="B72" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">

--- a/LegacySystem/src/main/resources/excel/resource.xlsx
+++ b/LegacySystem/src/main/resources/excel/resource.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学科\大四上\互联网+实践\code\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D994309-A7C9-4331-BE2E-2603D52758DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24040" windowHeight="13120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24036" windowHeight="13116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
   <si>
     <t>项目</t>
   </si>
@@ -46,114 +52,12 @@
 3.资源：能够完成某种工艺的一个资源，资源的上层资源为资源组。</t>
   </si>
   <si>
-    <t>5组-童玲 (5)</t>
-  </si>
-  <si>
     <t>班组</t>
   </si>
   <si>
     <t>资源</t>
   </si>
   <si>
-    <t>6组-李  倩（4）</t>
-  </si>
-  <si>
-    <t>7组-黄娣（4）</t>
-  </si>
-  <si>
-    <t>8组-张萍（4）</t>
-  </si>
-  <si>
-    <t>14组-周  清（4）</t>
-  </si>
-  <si>
-    <t>16组-朱美（4）</t>
-  </si>
-  <si>
-    <t>4组-赵勤（3）</t>
-  </si>
-  <si>
-    <t>2组-丁梅（3）</t>
-  </si>
-  <si>
-    <t>39组-刘  霞（3）</t>
-  </si>
-  <si>
-    <t>23组-吴凤（4）</t>
-  </si>
-  <si>
-    <t>24组-张 娟1（3）</t>
-  </si>
-  <si>
-    <t>13组-刘燕（3）</t>
-  </si>
-  <si>
-    <t>20组-王梅（4）</t>
-  </si>
-  <si>
-    <t>11组-张  娟（4）</t>
-  </si>
-  <si>
-    <t>28组-杜珍(4)</t>
-  </si>
-  <si>
-    <t>9组-张敏（5）</t>
-  </si>
-  <si>
-    <t>10组-陈  云（5）</t>
-  </si>
-  <si>
-    <t>1组-彭慧 (5)</t>
-  </si>
-  <si>
-    <t>12组-姚兰（5）</t>
-  </si>
-  <si>
-    <t>15组-李娟（5）</t>
-  </si>
-  <si>
-    <t>40组-高燕（5）</t>
-  </si>
-  <si>
-    <t>27组-徐燕(5)</t>
-  </si>
-  <si>
-    <t>26组-杨  丽（5）</t>
-  </si>
-  <si>
-    <t>3组-李翠 (4)</t>
-  </si>
-  <si>
-    <t>18组-芮  娜（3）</t>
-  </si>
-  <si>
-    <t>19组-王  秀（3）</t>
-  </si>
-  <si>
-    <t>21组-陈花（4）</t>
-  </si>
-  <si>
-    <t>17组-吴凤（4）</t>
-  </si>
-  <si>
-    <t>36组-谢霞(4)</t>
-  </si>
-  <si>
-    <t>30组-陈  梅(4)</t>
-  </si>
-  <si>
-    <t>31组-史玲(4)</t>
-  </si>
-  <si>
-    <t>33组-许萍（5）</t>
-  </si>
-  <si>
-    <t>22组-陈霞（6）</t>
-  </si>
-  <si>
-    <t>UKK组-王娣（6）</t>
-  </si>
-  <si>
     <t>line01</t>
   </si>
   <si>
@@ -263,19 +167,149 @@
   </si>
   <si>
     <t>电阻测试机</t>
+  </si>
+  <si>
+    <t>5组-童玲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6组-李倩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7组-黄娣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8组-张萍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14组-周清</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16组-朱美</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4组-赵勤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组-丁梅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>39组-刘霞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23组-吴凤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24组-张娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13组-刘燕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20组-王梅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11组-张娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>28组-杜珍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9组-张敏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10组-陈云</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组-彭慧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12组-姚兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15组-李娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40组-高燕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>27组-徐燕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26组-杨丽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3组-李翠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18组-芮娜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19组-王秀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21组-陈花</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17组-吴凤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36组-谢霞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30组-陈梅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31组-史玲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33组-许萍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22组-陈霞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UKK组-王娣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,151 +335,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,194 +361,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -668,255 +385,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,62 +417,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1255,24 +689,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7232142857143" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56" spans="1:6">
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="322" spans="1:6">
+    <row r="2" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1306,1128 +740,1129 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="14" spans="1:6">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
+      <c r="B3" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14" spans="1:6">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="14" spans="1:6">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14" spans="1:6">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="14" spans="1:6">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="14" spans="1:6">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="14" spans="1:6">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="14" spans="1:6">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="14" spans="1:6">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="14" spans="1:6">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
+      <c r="B12" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:6">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
+      <c r="B14" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="14" spans="1:6">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="16" ht="14" spans="1:6">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="17" ht="14" spans="1:6">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
+      <c r="B17" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="14" spans="1:6">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
+      <c r="B18" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="14" spans="1:6">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
-        <v>27</v>
+      <c r="B19" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="14" spans="1:6">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
+      <c r="B20" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="14" spans="1:6">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="14" spans="1:6">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
+      <c r="B22" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="14" spans="1:6">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
+      <c r="B23" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="14" spans="1:6">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
+      <c r="B24" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="14" spans="1:6">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
+      <c r="B25" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="14" spans="1:6">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
+      <c r="B26" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="27" ht="14" spans="1:6">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
+      <c r="B27" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="28" ht="14" spans="1:6">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>36</v>
+      <c r="B28" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="14" spans="1:6">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
-        <v>37</v>
+      <c r="B29" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="30" ht="14" spans="1:6">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>38</v>
+      <c r="B30" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="31" ht="14" spans="1:6">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
-        <v>39</v>
+      <c r="B31" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="32" ht="14" spans="1:6">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
+      <c r="B32" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="33" ht="14" spans="1:6">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
-        <v>41</v>
+      <c r="B33" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="34" ht="14" spans="1:6">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
-        <v>42</v>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="14" spans="1:6">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
-        <v>43</v>
+      <c r="B35" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="36" ht="28" spans="1:6">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
-      <c r="B36" s="5" t="s">
-        <v>44</v>
+      <c r="B36" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="37" ht="14" spans="1:6">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="14" spans="1:6">
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="39" ht="14" spans="1:6">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="40" ht="14" spans="1:6">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="41" ht="14" spans="1:6">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="14" spans="1:6">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="43" ht="14" spans="1:6">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="14" spans="1:6">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="45" ht="14" spans="1:6">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="46" ht="14" spans="1:6">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="47" ht="14" spans="1:6">
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="48" ht="14" spans="1:6">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="49" ht="14" spans="1:6">
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="14" spans="1:6">
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="51" ht="14" spans="1:6">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="52" ht="14" spans="1:6">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="53" ht="14" spans="1:6">
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="54" ht="14" spans="1:6">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="55" ht="14" spans="1:6">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="56" ht="14" spans="1:6">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="57" ht="14" spans="1:6">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="58" ht="14" spans="1:6">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="59" ht="14" spans="1:6">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="60" ht="14" spans="1:6">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="61" ht="14" spans="1:6">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="62" ht="14" spans="1:6">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="63" ht="14" spans="1:6">
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="64" ht="14" spans="1:6">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="65" ht="14" spans="1:6">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="66" ht="14" spans="1:6">
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="67" ht="14" spans="1:6">
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="14" spans="1:6">
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="8" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="14" spans="1:6">
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="8" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="70" ht="14" spans="1:6">
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="8" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F70" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="71" ht="14" spans="1:6">
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="72" ht="14" spans="1:6">
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" s="8">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LegacySystem/src/main/resources/excel/resource.xlsx
+++ b/LegacySystem/src/main/resources/excel/resource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学科\大四上\互联网+实践\code\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上文件\面向互联网+实践\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D994309-A7C9-4331-BE2E-2603D52758DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1B05FA-350A-4EE4-98E1-4F3427F20842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24036" windowHeight="13116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
   <si>
     <t>项目</t>
   </si>
@@ -58,69 +58,21 @@
     <t>资源</t>
   </si>
   <si>
-    <t>line01</t>
-  </si>
-  <si>
     <t>线体</t>
   </si>
   <si>
-    <t>line02</t>
-  </si>
-  <si>
-    <t>line03</t>
-  </si>
-  <si>
-    <t>line04</t>
-  </si>
-  <si>
-    <t>line05</t>
-  </si>
-  <si>
     <t>line06</t>
   </si>
   <si>
     <t>line07</t>
   </si>
   <si>
-    <t>line08</t>
-  </si>
-  <si>
-    <t>line10</t>
-  </si>
-  <si>
     <t>line11</t>
   </si>
   <si>
-    <t>line12</t>
-  </si>
-  <si>
     <t>line14</t>
   </si>
   <si>
-    <t>line15</t>
-  </si>
-  <si>
-    <t>line17</t>
-  </si>
-  <si>
-    <t>line18</t>
-  </si>
-  <si>
-    <t>line19</t>
-  </si>
-  <si>
-    <t>line20</t>
-  </si>
-  <si>
-    <t>line30</t>
-  </si>
-  <si>
-    <t>line31</t>
-  </si>
-  <si>
-    <t>line32</t>
-  </si>
-  <si>
     <t>line33</t>
   </si>
   <si>
@@ -142,15 +94,9 @@
     <t>line39</t>
   </si>
   <si>
-    <t>line40</t>
-  </si>
-  <si>
     <t>line41</t>
   </si>
   <si>
-    <t>line42</t>
-  </si>
-  <si>
     <t>line43</t>
   </si>
   <si>
@@ -261,26 +207,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3组-李翠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18组-芮娜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>19组-王秀</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>21组-陈花</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17组-吴凤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>36组-谢霞</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -294,10 +224,6 @@
   </si>
   <si>
     <t>33组-许萍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22组-陈霞</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -695,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -743,7 +669,7 @@
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
@@ -759,7 +685,7 @@
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -775,7 +701,7 @@
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -791,7 +717,7 @@
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -807,7 +733,7 @@
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -823,7 +749,7 @@
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -839,7 +765,7 @@
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="9" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -855,7 +781,7 @@
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -871,7 +797,7 @@
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -887,7 +813,7 @@
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
@@ -903,7 +829,7 @@
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
@@ -919,7 +845,7 @@
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
@@ -935,7 +861,7 @@
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
@@ -951,7 +877,7 @@
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
@@ -967,7 +893,7 @@
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>9</v>
@@ -983,7 +909,7 @@
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>9</v>
@@ -999,7 +925,7 @@
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>9</v>
@@ -1015,7 +941,7 @@
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>9</v>
@@ -1031,7 +957,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
@@ -1047,7 +973,7 @@
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -1063,7 +989,7 @@
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
@@ -1079,7 +1005,7 @@
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="9" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>9</v>
@@ -1095,7 +1021,7 @@
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>9</v>
@@ -1111,7 +1037,7 @@
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="9" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>9</v>
@@ -1121,13 +1047,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="9" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
@@ -1137,13 +1063,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="9" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>9</v>
@@ -1153,13 +1079,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="9" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>9</v>
@@ -1175,7 +1101,7 @@
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="9" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>9</v>
@@ -1185,13 +1111,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="9" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>9</v>
@@ -1201,16 +1127,16 @@
         <v>10</v>
       </c>
       <c r="F31" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
-      <c r="B32" s="9" t="s">
-        <v>77</v>
+      <c r="B32" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
@@ -1222,11 +1148,11 @@
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
-      <c r="B33" s="9" t="s">
-        <v>78</v>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
@@ -1238,75 +1164,75 @@
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
-      <c r="B34" s="9" t="s">
-        <v>79</v>
+      <c r="B34" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
-      <c r="B35" s="9" t="s">
-        <v>80</v>
+      <c r="B35" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
-      <c r="B36" s="9" t="s">
-        <v>81</v>
+      <c r="B36" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
@@ -1319,26 +1245,26 @@
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
@@ -1351,26 +1277,26 @@
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
@@ -1383,10 +1309,10 @@
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
@@ -1399,464 +1325,96 @@
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
-      <c r="B45" s="5" t="s">
-        <v>20</v>
+      <c r="B45" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
-      <c r="B46" s="5" t="s">
-        <v>21</v>
+      <c r="B46" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
-        <v>22</v>
+      <c r="B47" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
-      <c r="B48" s="5" t="s">
-        <v>23</v>
+      <c r="B48" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
-      <c r="B49" s="5" t="s">
-        <v>24</v>
+      <c r="B49" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="4"/>
-      <c r="B68" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
-      <c r="B69" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="4"/>
-      <c r="B70" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="4"/>
-      <c r="B71" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="4"/>
-      <c r="B72" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="8">
         <v>2</v>
       </c>
     </row>

--- a/LegacySystem/src/main/resources/excel/resource.xlsx
+++ b/LegacySystem/src/main/resources/excel/resource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上文件\面向互联网+实践\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1B05FA-350A-4EE4-98E1-4F3427F20842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C83FEA4-93C1-45D3-B892-B8524660F532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,18 +246,21 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -623,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.35">
@@ -1383,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.35">

--- a/LegacySystem/src/main/resources/excel/resource.xlsx
+++ b/LegacySystem/src/main/resources/excel/resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上文件\面向互联网+实践\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C83FEA4-93C1-45D3-B892-B8524660F532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D43F671-4EAB-4495-9845-C0901DDF5D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>项目</t>
   </si>
@@ -76,21 +76,6 @@
     <t>line33</t>
   </si>
   <si>
-    <t>line34</t>
-  </si>
-  <si>
-    <t>line35</t>
-  </si>
-  <si>
-    <t>line36</t>
-  </si>
-  <si>
-    <t>line37</t>
-  </si>
-  <si>
-    <t>line38</t>
-  </si>
-  <si>
     <t>line39</t>
   </si>
   <si>
@@ -168,66 +153,6 @@
   </si>
   <si>
     <t>11组-张娟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>28组-杜珍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9组-张敏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10组-陈云</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1组-彭慧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12组-姚兰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15组-李娟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40组-高燕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>27组-徐燕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>26组-杨丽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>19组-王秀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36组-谢霞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30组-陈梅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>31组-史玲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33组-许萍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UKK组-王娣</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,12 +194,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -320,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,9 +264,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -671,8 +587,8 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="9" t="s">
-        <v>30</v>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
@@ -687,8 +603,8 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="9" t="s">
-        <v>31</v>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -703,8 +619,8 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -719,8 +635,8 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
-      <c r="B6" s="9" t="s">
-        <v>33</v>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -735,8 +651,8 @@
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="9" t="s">
-        <v>34</v>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -751,8 +667,8 @@
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="9" t="s">
-        <v>35</v>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -767,8 +683,8 @@
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -783,8 +699,8 @@
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -799,8 +715,8 @@
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="9" t="s">
-        <v>38</v>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -815,8 +731,8 @@
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="9" t="s">
-        <v>39</v>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
@@ -831,8 +747,8 @@
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="9" t="s">
-        <v>40</v>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
@@ -847,8 +763,8 @@
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="9" t="s">
-        <v>41</v>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
@@ -863,8 +779,8 @@
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="9" t="s">
-        <v>42</v>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
@@ -879,8 +795,8 @@
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="9" t="s">
-        <v>43</v>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
@@ -895,155 +811,155 @@
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="9" t="s">
-        <v>44</v>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="9" t="s">
-        <v>45</v>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="9" t="s">
-        <v>46</v>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="9" t="s">
-        <v>48</v>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="B22" s="9" t="s">
-        <v>49</v>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
-      <c r="B23" s="9" t="s">
-        <v>50</v>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
-      <c r="B24" s="9" t="s">
-        <v>51</v>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="9" t="s">
-        <v>52</v>
+      <c r="B25" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
-      <c r="B26" s="9" t="s">
-        <v>53</v>
+      <c r="B26" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
@@ -1055,369 +971,49 @@
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
-      <c r="B27" s="9" t="s">
-        <v>54</v>
+      <c r="B27" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
-      <c r="B28" s="9" t="s">
-        <v>55</v>
+      <c r="B28" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
-      <c r="B29" s="9" t="s">
-        <v>56</v>
+      <c r="B29" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
-      <c r="B45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
-      <c r="B46" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
-      <c r="B47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="4"/>
-      <c r="B48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="4"/>
-      <c r="B49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="8">
         <v>2</v>
       </c>
     </row>

--- a/LegacySystem/src/main/resources/excel/resource.xlsx
+++ b/LegacySystem/src/main/resources/excel/resource.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上文件\面向互联网+实践\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D43F671-4EAB-4495-9845-C0901DDF5D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23500" windowHeight="12980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>项目</t>
   </si>
@@ -52,18 +46,60 @@
 3.资源：能够完成某种工艺的一个资源，资源的上层资源为资源组。</t>
   </si>
   <si>
+    <t>5组-童玲</t>
+  </si>
+  <si>
     <t>班组</t>
   </si>
   <si>
     <t>资源</t>
   </si>
   <si>
+    <t>6组-李倩</t>
+  </si>
+  <si>
+    <t>7组-黄娣</t>
+  </si>
+  <si>
+    <t>8组-张萍</t>
+  </si>
+  <si>
+    <t>14组-周清</t>
+  </si>
+  <si>
+    <t>16组-朱美</t>
+  </si>
+  <si>
+    <t>4组-赵勤</t>
+  </si>
+  <si>
+    <t>2组-丁梅</t>
+  </si>
+  <si>
+    <t>39组-刘霞</t>
+  </si>
+  <si>
+    <t>23组-吴凤</t>
+  </si>
+  <si>
+    <t>24组-张娟</t>
+  </si>
+  <si>
+    <t>13组-刘燕</t>
+  </si>
+  <si>
+    <t>20组-王梅</t>
+  </si>
+  <si>
+    <t>11组-张娟</t>
+  </si>
+  <si>
+    <t>line06</t>
+  </si>
+  <si>
     <t>线体</t>
   </si>
   <si>
-    <t>line06</t>
-  </si>
-  <si>
     <t>line07</t>
   </si>
   <si>
@@ -98,69 +134,19 @@
   </si>
   <si>
     <t>电阻测试机</t>
-  </si>
-  <si>
-    <t>5组-童玲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6组-李倩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7组-黄娣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8组-张萍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14组-周清</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16组-朱美</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4组-赵勤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2组-丁梅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>39组-刘霞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23组-吴凤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24组-张娟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13组-刘燕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20组-王梅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11组-张娟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,32 +157,173 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +336,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -233,9 +546,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -256,27 +811,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -534,24 +1133,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88392857142857" defaultRowHeight="12.8" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" ht="56" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,11 +1166,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="2" ht="322" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -583,443 +1182,443 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="14" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" ht="14" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" ht="14" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" ht="14" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" ht="14" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" ht="14" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" ht="14" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="14" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="14" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="14" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="14" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="14" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" ht="14" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" ht="14" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="14" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="8">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" ht="14" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" ht="14" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="8">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" ht="14" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="8">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" ht="14" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="8">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" ht="14" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="8">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" ht="14" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" ht="14" spans="1:6">
       <c r="A25" s="4"/>
-      <c r="B25" s="8" t="s">
-        <v>20</v>
+      <c r="B25" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="8">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" ht="14" spans="1:6">
       <c r="A26" s="4"/>
-      <c r="B26" s="8" t="s">
-        <v>21</v>
+      <c r="B26" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="8">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" ht="14" spans="1:6">
       <c r="A27" s="4"/>
-      <c r="B27" s="8" t="s">
-        <v>22</v>
+      <c r="B27" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="8">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" ht="14" spans="1:6">
       <c r="A28" s="4"/>
-      <c r="B28" s="8" t="s">
-        <v>23</v>
+      <c r="B28" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="8">
+        <v>11</v>
+      </c>
+      <c r="F28" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" ht="14" spans="1:6">
       <c r="A29" s="4"/>
-      <c r="B29" s="8" t="s">
-        <v>24</v>
+      <c r="B29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="8">
+        <v>11</v>
+      </c>
+      <c r="F29" s="6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LegacySystem/src/main/resources/excel/resource.xlsx
+++ b/LegacySystem/src/main/resources/excel/resource.xlsx
@@ -143,8 +143,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -186,6 +186,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -194,6 +208,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -201,10 +230,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,31 +286,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,30 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,42 +322,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -344,31 +344,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,61 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,73 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,21 +590,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -634,6 +619,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -649,142 +649,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,8 +1141,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88392857142857" defaultRowHeight="12.8" outlineLevelCol="5"/>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" ht="14" spans="1:6">
